--- a/08_Nezamestnanost/Raw_data/Data.xlsx
+++ b/08_Nezamestnanost/Raw_data/Data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Dropbox\ET2 2021\8. Cvičenie - Nezamestnanosť a Philipsova krivka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Plocha\PhD\Ucenie\ZE2\zaklady_ekonomie_2\08_Nezamestnanost\Raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3434558C-8AA8-433B-98E6-34394DEC5B49}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00075F65-ED5E-46F5-8CC5-E811236D7376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SK_A" sheetId="1" r:id="rId1"/>
     <sheet name="SK_Q" sheetId="2" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>rok</t>
   </si>
@@ -86,6 +87,15 @@
   </si>
   <si>
     <t>unem_yoy</t>
+  </si>
+  <si>
+    <t>unemp</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>quarter</t>
   </si>
 </sst>
 </file>
@@ -17584,8 +17594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E377109-4411-4C72-AFC5-9C2D43D86DFA}">
   <dimension ref="A1:V105"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView topLeftCell="A67" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J78" sqref="J78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20480,7 +20490,800 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F108D50C-DB31-484F-8654-704838681D3A}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>40238</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.53058117668129956</v>
+      </c>
+      <c r="D2" s="1">
+        <v>15.132703888186755</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.0479977479062494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>40330</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.1612787517374157</v>
+      </c>
+      <c r="D3" s="1">
+        <v>14.37722156398104</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.4812286689419825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40422</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.0635677660598697</v>
+      </c>
+      <c r="D4" s="1">
+        <v>14.100724717654417</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3.8047916291816142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>40513</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0969860810116305</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13.888173151249678</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3.7849536410811346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>40603</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.3003006346731922</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13.948956264288123</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.8965517241379413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>40695</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.8538250155128129</v>
+      </c>
+      <c r="D7" s="1">
+        <v>13.216584343661131</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3.0343007915567322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>40787</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.9746543778801824</v>
+      </c>
+      <c r="D8" s="1">
+        <v>13.207195798726209</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2.533333333333343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>40878</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.501657458563546</v>
+      </c>
+      <c r="D9" s="1">
+        <v>14.048697201395591</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.47393364928909332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40969</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.8372819971112415</v>
+      </c>
+      <c r="D10" s="1">
+        <v>14.059149722735675</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.2171581769437019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>41061</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3.4995625546806686</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13.616013616013618</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1.5364916773367376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41153</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.6650330279138998</v>
+      </c>
+      <c r="D12" s="1">
+        <v>13.680465157922233</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.950585175552666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>41244</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.461839406179279</v>
+      </c>
+      <c r="D13" s="1">
+        <v>14.437197083272006</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3.1839622641509413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>41334</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.1612307181265278</v>
+      </c>
+      <c r="D14" s="1">
+        <v>14.523354876615747</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.4675324675324628</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>41426</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.6390738717192876</v>
+      </c>
+      <c r="D15" s="1">
+        <v>14.033532757219882</v>
+      </c>
+      <c r="E15" s="1">
+        <v>3.1525851197982346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>41518</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.2744090441932254</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14.062673137459687</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2.4234693877551061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>41609</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.49464475513039119</v>
+      </c>
+      <c r="D17" s="1">
+        <v>14.246226831917003</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.371428571428579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>41699</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-5.4869126971213156E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>14.108538727172851</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.0557667934093766</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>41791</v>
+      </c>
+      <c r="C19" s="1">
+        <v>-7.9110714430619122E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13.15126239572901</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.7677261613692012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>41883</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-0.12583722346255488</v>
+      </c>
+      <c r="D20" s="1">
+        <v>12.856873586789034</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4.2341220423412151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>41974</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-1.6271407069934352E-2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>12.604837445075139</v>
+      </c>
+      <c r="E21" s="1">
+        <v>3.4949267192784683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>42064</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-0.42496085886829515</v>
+      </c>
+      <c r="D22" s="1">
+        <v>12.412307216851953</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2.1924482338611551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42156</v>
+      </c>
+      <c r="C23" s="1">
+        <v>-9.5414036013719006E-2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>11.220567096862117</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2.3337222870478458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>42248</v>
+      </c>
+      <c r="C24" s="1">
+        <v>-0.29669972362218466</v>
+      </c>
+      <c r="D24" s="1">
+        <v>11.288159368936904</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.8673835125448077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>42339</v>
+      </c>
+      <c r="C25" s="1">
+        <v>-0.49839293706008814</v>
+      </c>
+      <c r="D25" s="1">
+        <v>10.98686593643993</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.1394335511982572</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>42430</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.53091562525523495</v>
+      </c>
+      <c r="D26" s="1">
+        <v>10.358984293777123</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3.3373063170440975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>42522</v>
+      </c>
+      <c r="C27" s="1">
+        <v>-0.67869625294644242</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9.6082543514290428</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.7366020524515422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>42614</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-0.75822428763604455</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9.4865637234271816</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3.2520325203251987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>42705</v>
+      </c>
+      <c r="C29" s="1">
+        <v>-0.10835565187168328</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9.1272075872537446</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3.5564853556485421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>42795</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0.91969124651010148</v>
+      </c>
+      <c r="D30" s="1">
+        <v>8.7100550268594716</v>
+      </c>
+      <c r="E30" s="1">
+        <v>3.460207612456756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>42887</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.94521052416220996</v>
+      </c>
+      <c r="D31" s="1">
+        <v>8.1179300925515161</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.7724750277469585</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>42979</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1.5403573629081846</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.9679918122966109</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.1743532058492692</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>43070</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1.8280496505539645</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.7289230260684461</v>
+      </c>
+      <c r="E33" s="1">
+        <v>5.1515151515151514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>43160</v>
+      </c>
+      <c r="C34" s="1">
+        <v>2.3241113137714375</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.0938752751005127</v>
+      </c>
+      <c r="E34" s="1">
+        <v>6.4659977703455995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43252</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2.7783523804600474</v>
+      </c>
+      <c r="D35" s="1">
+        <v>6.6316962247264897</v>
+      </c>
+      <c r="E35" s="1">
+        <v>6.3559322033898358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43344</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.7098067936653258</v>
+      </c>
+      <c r="D36" s="1">
+        <v>6.3625692520901351</v>
+      </c>
+      <c r="E36" s="1">
+        <v>6.0962566844919852</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43435</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2.1663188046956883</v>
+      </c>
+      <c r="D37" s="1">
+        <v>6.061462465362605</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5.7636887608069065</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43525</v>
+      </c>
+      <c r="C38" s="1">
+        <v>2.391585861948875</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5.8155773913575066</v>
+      </c>
+      <c r="E38" s="1">
+        <v>7.1204188481675423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>43617</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.5413948933506347</v>
+      </c>
+      <c r="D39" s="1">
+        <v>5.6894639610644582</v>
+      </c>
+      <c r="E39" s="1">
+        <v>9.6613545816732973</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43709</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.8751549489849371</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.8689936105900999</v>
+      </c>
+      <c r="E40" s="1">
+        <v>7.6612903225806495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.8988084639907097</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5.6407022000559328</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.9028156221616621</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3">
+        <v>43891</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.7600041337341619</v>
+      </c>
+      <c r="D42" s="1">
+        <v>5.9556634109835924</v>
+      </c>
+      <c r="E42" s="1">
+        <v>6.1583577712609916</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.9303274540294124</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6.6288105445368641</v>
+      </c>
+      <c r="E43" s="1">
+        <v>-1.1807447774750179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>44075</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1.5117456061584988</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7.2093372184606412</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4.2134831460674205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44166</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1.5400380732498276</v>
+      </c>
+      <c r="D45" s="1">
+        <v>6.9560896201401619</v>
+      </c>
+      <c r="E45" s="1">
+        <v>5.7774001699235411</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101008B6E091CBDD005468D58D57A49B3A1E4" ma:contentTypeVersion="10" ma:contentTypeDescription="Umožňuje vytvoriť nový dokument." ma:contentTypeScope="" ma:versionID="7e52b19ad58d4c787014e1fac5b27adf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="042208f7-14fb-4edf-ad0d-a9351fee3225" xmlns:ns3="cdff3e54-9dd6-4a70-a101-63fa2fdd7722" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="002d07fb5fcc3cbc5d2417385bbc89d2" ns2:_="" ns3:_="">
     <xsd:import namespace="042208f7-14fb-4edf-ad0d-a9351fee3225"/>
@@ -20663,15 +21466,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -20684,13 +21478,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC73D5E7-87DD-465B-8788-6A4445976DA6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03829F65-62E3-4362-A44E-A0FE4E522372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03829F65-62E3-4362-A44E-A0FE4E522372}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC73D5E7-87DD-465B-8788-6A4445976DA6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="042208f7-14fb-4edf-ad0d-a9351fee3225"/>
+    <ds:schemaRef ds:uri="cdff3e54-9dd6-4a70-a101-63fa2fdd7722"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D474AC09-DE48-4A9B-A57A-3A07FF3FC4CC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D474AC09-DE48-4A9B-A57A-3A07FF3FC4CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="cdff3e54-9dd6-4a70-a101-63fa2fdd7722"/>
+    <ds:schemaRef ds:uri="042208f7-14fb-4edf-ad0d-a9351fee3225"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>